--- a/car_comments/static/export/xlsx/country.xlsx
+++ b/car_comments/static/export/xlsx/country.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;QuerySet []&gt;</t>
+          <t>&lt;QuerySet [{'id': 6, 'name': 'Lada'}]&gt;</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;QuerySet []&gt;</t>
+          <t>&lt;QuerySet [{'id': 5, 'name': 'Renault'}]&gt;</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;QuerySet [{'id': 1, 'name': 'Ferrari'}]&gt;</t>
+          <t>&lt;QuerySet []&gt;</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Lada Vesta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;QuerySet [{'id': 2, 'name': 'Mercedes'}]&gt;</t>
+          <t>&lt;QuerySet []&gt;</t>
         </is>
       </c>
     </row>
